--- a/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.04100072053473892</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.04317628128793461</v>
+        <v>0.04317628128793462</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01017036263004207</v>
+        <v>0.007400358874402293</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009088797507531133</v>
+        <v>0.009525425744303559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002700416208487859</v>
+        <v>0.002723826188472165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007074546118593891</v>
+        <v>0.005031914781553479</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04319753383670365</v>
+        <v>0.0422991678140715</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03282709053574011</v>
+        <v>0.03398394402494884</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04281818221838653</v>
+        <v>0.0431318852055004</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05190482514426036</v>
+        <v>0.0509746730072583</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02760483264294098</v>
+        <v>0.02967380302992388</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02526661190262599</v>
+        <v>0.02641687082256938</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02719238352658316</v>
+        <v>0.02657539831722552</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03129041124368069</v>
+        <v>0.03161685618582705</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04889735465015983</v>
+        <v>0.04859975829019978</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04840444573817926</v>
+        <v>0.05026981132053277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03079979380673895</v>
+        <v>0.0291141480177702</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03300193775273033</v>
+        <v>0.03030128911107193</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1081813604330917</v>
+        <v>0.1089883068382556</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09415595273761865</v>
+        <v>0.095641376222558</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1080110029267286</v>
+        <v>0.1080367151072495</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09668963691201998</v>
+        <v>0.09502510346218737</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06531314101221503</v>
+        <v>0.06702087187087333</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06196227618625565</v>
+        <v>0.06157514210321494</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06233044987179288</v>
+        <v>0.05953460142185282</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05710682498902289</v>
+        <v>0.05693893694752907</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01202666649831165</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01059014735408457</v>
+        <v>0.01059014735408456</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.04286673675378593</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007185065199872723</v>
+        <v>0.007259811070839817</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006172126109928319</v>
+        <v>0.006183577031291018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004445770246579648</v>
+        <v>0.004105596749819718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003811108423029896</v>
+        <v>0.004051744678758004</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02726649638522453</v>
+        <v>0.02846721714034687</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03695872240400132</v>
+        <v>0.03717556696594988</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01219855945117889</v>
+        <v>0.01185844189108014</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01573140964449048</v>
+        <v>0.01593327575873129</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02062642596664449</v>
+        <v>0.02035404874068004</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02640432238996695</v>
+        <v>0.02643030376536359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01053797991742121</v>
+        <v>0.01022686942921713</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01177976587495683</v>
+        <v>0.01204695863034406</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03906715464923095</v>
+        <v>0.04052773928107949</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03802382657088478</v>
+        <v>0.04295945982206877</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02373016403644516</v>
+        <v>0.02575620756198138</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02383327710649157</v>
+        <v>0.02495425712337299</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06282961221735131</v>
+        <v>0.06604965751700792</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08243535664131857</v>
+        <v>0.08208301521584752</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03860537263245569</v>
+        <v>0.03838701467249656</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03887551559803508</v>
+        <v>0.03895742999894223</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0442449293768265</v>
+        <v>0.04463321861297703</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05443532743674745</v>
+        <v>0.05407080929531763</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02730351927738397</v>
+        <v>0.02689715218947352</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02704558449526441</v>
+        <v>0.02687735274421908</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03493957600489069</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07711018972705784</v>
+        <v>0.07711018972705783</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03318856772183329</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002986757380209658</v>
+        <v>0.003002663845903936</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005846359930038451</v>
+        <v>0.005832461376258982</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02375533185576787</v>
+        <v>0.02482635036958749</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03267005800831829</v>
+        <v>0.03471050120288605</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03503583105210448</v>
+        <v>0.03561059361480223</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01758179789193327</v>
+        <v>0.01817083918324043</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05623166183621729</v>
+        <v>0.05731657850221052</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0202271713140151</v>
+        <v>0.02109055446844688</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02411181322668786</v>
+        <v>0.02333957468461923</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01103827363499689</v>
+        <v>0.01074276955064729</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04664168833555354</v>
+        <v>0.04641705196898161</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03423391630545401</v>
+        <v>0.03408088096826844</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03014611748045234</v>
+        <v>0.03337520918805871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02073001236465668</v>
+        <v>0.01740207560306991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06677116085817789</v>
+        <v>0.0667595999040721</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08189196027362877</v>
+        <v>0.08499262706120184</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0877094117741487</v>
+        <v>0.08825332510606594</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06074026480995468</v>
+        <v>0.06214531491767745</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1008703131012286</v>
+        <v>0.09978315356418285</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.049326518923939</v>
+        <v>0.05003169917368624</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05466754646522212</v>
+        <v>0.05209199421822528</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0338672800878643</v>
+        <v>0.03353295010009067</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07612379689146856</v>
+        <v>0.07865345937042953</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.04709639217954599</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01990359057510768</v>
+        <v>0.01990359057510767</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01680507422507314</v>
+        <v>0.01777854831046128</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005237993697436841</v>
+        <v>0.005572420919387045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005505256254781011</v>
+        <v>0.005495437374830473</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00318816591190475</v>
+        <v>0.003347490009867485</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04670637087112656</v>
+        <v>0.04518213947835197</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05593947825796999</v>
+        <v>0.05812526219005881</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05177291841615995</v>
+        <v>0.05422328182426471</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01623033181505996</v>
+        <v>0.01579541073006033</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03553969301823462</v>
+        <v>0.03623853781318512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03387527602777678</v>
+        <v>0.03494632446183097</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03190930228181785</v>
+        <v>0.03398251492755459</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01185065159068869</v>
+        <v>0.01235625096861954</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05408195161967983</v>
+        <v>0.05590625235982227</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03155802598589375</v>
+        <v>0.02974177693511354</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03151708209266299</v>
+        <v>0.03242748657729466</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03675609157447519</v>
+        <v>0.03712949058291903</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09647538934254946</v>
+        <v>0.0946210133410072</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.116616423667532</v>
+        <v>0.1179805594332034</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1088261161192459</v>
+        <v>0.1089763361679403</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04386427521730731</v>
+        <v>0.04597344964566303</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06767267317595597</v>
+        <v>0.06633370893697589</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06620473671390395</v>
+        <v>0.06848400631497982</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06422659464289729</v>
+        <v>0.06467735219970856</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03180012535469857</v>
+        <v>0.03304346207514136</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.03243121263475885</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07948388937570577</v>
+        <v>0.07948388937570576</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02867276533692124</v>
@@ -1241,7 +1241,7 @@
         <v>0.01856719720468857</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05512086743235958</v>
+        <v>0.05512086743235959</v>
       </c>
     </row>
     <row r="17">
@@ -1255,37 +1255,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004962047744085335</v>
+        <v>0.004938744118133226</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01370684551806678</v>
+        <v>0.0142595213586647</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02613171086087385</v>
+        <v>0.02397253328008716</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05887837398352517</v>
+        <v>0.05906733336316387</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01347619182408204</v>
+        <v>0.01368436852349082</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05631652206959228</v>
+        <v>0.05849680032145971</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0144424547083469</v>
+        <v>0.01445056088526855</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03794511078690974</v>
+        <v>0.03702245830632932</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.008212460646099776</v>
+        <v>0.00858978463658578</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04170527966236214</v>
+        <v>0.04183024221003144</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0220428749049474</v>
+        <v>0.0220155630739712</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04812483440307555</v>
+        <v>0.04613172064927154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0236853562061928</v>
+        <v>0.02142762865285183</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04985760715000134</v>
+        <v>0.05092396215396353</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09277695884337177</v>
+        <v>0.09313736802232088</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.140466695788507</v>
+        <v>0.1484249444622466</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06511284900667373</v>
+        <v>0.06318360250367121</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1019345022667218</v>
+        <v>0.1038964746057855</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04863175445350096</v>
+        <v>0.05189539193347445</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08662517638262235</v>
+        <v>0.08501518008857482</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03467294151654134</v>
+        <v>0.03465757608086134</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07137080791366804</v>
+        <v>0.07139713424939752</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.03775282750046488</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06656768690110214</v>
+        <v>0.06656768690110211</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.04174424838620918</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006909765540813445</v>
+        <v>0.006942478301029837</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00299639800728026</v>
+        <v>0.00299730849728012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01580634910640297</v>
+        <v>0.01471481597109463</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03881062567410788</v>
+        <v>0.04024152371860412</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02914411876075582</v>
+        <v>0.0285144869732625</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01839491068121067</v>
+        <v>0.01794680606173476</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04409689007707487</v>
+        <v>0.04947048445390789</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02745411701690912</v>
+        <v>0.02577408639414576</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.016604274911084</v>
+        <v>0.01612283536637103</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01362591102579632</v>
+        <v>0.0136078224854997</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03607895245382084</v>
+        <v>0.03554993555502999</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04046830618234641</v>
+        <v>0.03828115266553947</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02548127908506</v>
+        <v>0.02557298778534782</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03015339001053238</v>
+        <v>0.03037493241313182</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04843041600081838</v>
+        <v>0.04681047421039188</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09670975643081085</v>
+        <v>0.09867732695274109</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08219289884920246</v>
+        <v>0.08246979824809424</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06538192154041673</v>
+        <v>0.0687303912829236</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08956700222021428</v>
+        <v>0.0928486213569647</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06248906554648676</v>
+        <v>0.05883563772466651</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04663585345586566</v>
+        <v>0.04466182802263314</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04017747901720983</v>
+        <v>0.04259081432622753</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.06216995715948753</v>
+        <v>0.06228741531521235</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.03129337978939956</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07227861910930013</v>
+        <v>0.07227861910930015</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01858999667777333</v>
+        <v>0.01975150334713914</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.005631604374136642</v>
+        <v>0.005554335272809307</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01372653818358398</v>
+        <v>0.01365559184004553</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03330779680963905</v>
+        <v>0.03237307272550004</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04658114557292895</v>
+        <v>0.04805630530196289</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04800364958123229</v>
+        <v>0.04701315867752675</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02583105564878611</v>
+        <v>0.02374526827818917</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07635498711901102</v>
+        <v>0.07541456839678394</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03737509510717233</v>
+        <v>0.03649175585968428</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0289376819771953</v>
+        <v>0.02899236130274</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02317264486636017</v>
+        <v>0.02237636990402279</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06000927870074164</v>
+        <v>0.05925153755959167</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.049245297235681</v>
+        <v>0.04905291489352607</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0265924181091262</v>
+        <v>0.02508362411346338</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03922392680020329</v>
+        <v>0.03947762017486298</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06854739984332946</v>
+        <v>0.06670257163716782</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08725415313399358</v>
+        <v>0.08540942999720995</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08421232482493678</v>
+        <v>0.08379696607856753</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0555488601207433</v>
+        <v>0.05587477328133521</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1183426775198781</v>
+        <v>0.1171488724577305</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06155118722165419</v>
+        <v>0.06184324743837292</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05079797431981938</v>
+        <v>0.05094806352526842</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04214537477489629</v>
+        <v>0.04235858405280209</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08734310283021759</v>
+        <v>0.08633463292048527</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01394489657056156</v>
+        <v>0.01503525603323447</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.002657774000747128</v>
+        <v>0.002531508948448012</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.00369364462569734</v>
+        <v>0.003658122916735158</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02236375560784841</v>
+        <v>0.02223820900420585</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02972822484632923</v>
+        <v>0.029939232820623</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02351002676229943</v>
+        <v>0.02463130300146896</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01212738992221333</v>
+        <v>0.01208425863458216</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02142494097155589</v>
+        <v>0.02146172948963689</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01843779156376641</v>
+        <v>0.01814974753539716</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01602779375173349</v>
+        <v>0.01610303993429058</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.007057697705368004</v>
+        <v>0.006960679949329519</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03770694038405679</v>
+        <v>0.04211718322469502</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01609245282394401</v>
+        <v>0.01491757623676021</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01710507390832848</v>
+        <v>0.01759364334744863</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.007998151699692322</v>
+        <v>0.0083713313960513</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04883246718130575</v>
+        <v>0.04891852895906609</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05968702388802431</v>
+        <v>0.05955190142001354</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04973199254384561</v>
+        <v>0.05127642078876842</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0263579233670978</v>
+        <v>0.02726746105628633</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03916874275117958</v>
+        <v>0.03942902177724168</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03540431977312374</v>
+        <v>0.034879768119529</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0317387572406623</v>
+        <v>0.03130630992382888</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0158117323055312</v>
+        <v>0.01553748407474565</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01787624841270709</v>
+        <v>0.0173388800541074</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.009515053600464606</v>
+        <v>0.00930292856154942</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.009026479037089185</v>
+        <v>0.009242280838390963</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01750095081419149</v>
+        <v>0.01740374855571909</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04634489438971721</v>
+        <v>0.04526609960611089</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05271082209420064</v>
+        <v>0.05254052173751511</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.035251451864123</v>
+        <v>0.03493270032981925</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.04781439752896498</v>
+        <v>0.04782308958323538</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03373898616079787</v>
+        <v>0.03384077625063487</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.03280342163685292</v>
+        <v>0.0324429455565006</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0240652401626078</v>
+        <v>0.02392903685933381</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0344623917043537</v>
+        <v>0.03450654779983976</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0288765491678696</v>
+        <v>0.0278258246201784</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01792620202957717</v>
+        <v>0.01793182119195608</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01727313978615082</v>
+        <v>0.01692991018938545</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02747710060656051</v>
+        <v>0.02716706829890591</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06146344848268166</v>
+        <v>0.06053652538851954</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.06945415756656906</v>
+        <v>0.06928702712434376</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.04895396728801372</v>
+        <v>0.04901533423396617</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06004761908896834</v>
+        <v>0.05993935262044658</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04276052137304136</v>
+        <v>0.04289754052789286</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04200041994124094</v>
+        <v>0.04131932100474935</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.03192150359104742</v>
+        <v>0.03177723846703377</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.04226908147735559</v>
+        <v>0.04222967312488109</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2777</v>
+        <v>2020</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2638</v>
+        <v>2764</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2256</v>
+        <v>1604</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11268</v>
+        <v>11033</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9170</v>
+        <v>9493</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12362</v>
+        <v>12452</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16405</v>
+        <v>16111</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14737</v>
+        <v>15841</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14390</v>
+        <v>15045</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>15839</v>
+        <v>15479</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>19866</v>
+        <v>20074</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13349</v>
+        <v>13268</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14047</v>
+        <v>14588</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9048</v>
+        <v>8553</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10523</v>
+        <v>9661</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28218</v>
+        <v>28428</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>26300</v>
+        <v>26715</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31183</v>
+        <v>31191</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30560</v>
+        <v>30034</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>34867</v>
+        <v>35779</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>35289</v>
+        <v>35069</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>36305</v>
+        <v>34677</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>36257</v>
+        <v>36151</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3543</v>
+        <v>3580</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3120</v>
+        <v>3126</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2234</v>
+        <v>2063</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2019</v>
+        <v>2146</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13741</v>
+        <v>14346</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19319</v>
+        <v>19433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6381</v>
+        <v>6203</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8577</v>
+        <v>8687</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20565</v>
+        <v>20293</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>27150</v>
+        <v>27177</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10808</v>
+        <v>10489</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12662</v>
+        <v>12949</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19263</v>
+        <v>19983</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19222</v>
+        <v>21717</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11926</v>
+        <v>12944</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12624</v>
+        <v>13217</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31663</v>
+        <v>33286</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>43092</v>
+        <v>42907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>20194</v>
+        <v>20080</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21195</v>
+        <v>21240</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>44113</v>
+        <v>44500</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>55974</v>
+        <v>55599</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>28004</v>
+        <v>27587</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>29071</v>
+        <v>28890</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7495</v>
+        <v>7833</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10958</v>
+        <v>11642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11911</v>
+        <v>12106</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5913</v>
+        <v>6111</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20040</v>
+        <v>20427</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13234</v>
+        <v>13799</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>15988</v>
+        <v>15476</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7229</v>
+        <v>7035</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31338</v>
+        <v>31187</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10915</v>
+        <v>10867</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9741</v>
+        <v>10784</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6604</v>
+        <v>5544</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21066</v>
+        <v>21063</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27468</v>
+        <v>28508</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29817</v>
+        <v>30002</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20427</v>
+        <v>20900</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>35948</v>
+        <v>35561</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>32272</v>
+        <v>32734</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36248</v>
+        <v>34541</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22179</v>
+        <v>21960</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>51146</v>
+        <v>52846</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6027</v>
+        <v>6377</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1959</v>
+        <v>2084</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1190</v>
+        <v>1249</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17349</v>
+        <v>16783</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21703</v>
+        <v>22551</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20051</v>
+        <v>21000</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6843</v>
+        <v>6660</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>25948</v>
+        <v>26459</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>25811</v>
+        <v>26628</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24163</v>
+        <v>25733</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9419</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19398</v>
+        <v>20052</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11802</v>
+        <v>11123</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11660</v>
+        <v>11997</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13715</v>
+        <v>13855</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>35836</v>
+        <v>35148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>45244</v>
+        <v>45773</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>42147</v>
+        <v>42205</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18494</v>
+        <v>19384</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>49410</v>
+        <v>48432</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>50445</v>
+        <v>52182</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>48635</v>
+        <v>48977</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>25274</v>
+        <v>26262</v>
       </c>
     </row>
     <row r="20">
@@ -2871,37 +2871,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2819</v>
+        <v>2933</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5427</v>
+        <v>4978</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12929</v>
+        <v>12971</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2946</v>
+        <v>2991</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12796</v>
+        <v>13291</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5936</v>
+        <v>5939</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16400</v>
+        <v>16001</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3530</v>
+        <v>3692</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>18053</v>
+        <v>18107</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4481</v>
+        <v>4476</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10232</v>
+        <v>9808</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5003</v>
+        <v>4526</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10254</v>
+        <v>10473</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19267</v>
+        <v>19342</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>30845</v>
+        <v>32593</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>14233</v>
+        <v>13811</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>23161</v>
+        <v>23607</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>19986</v>
+        <v>21328</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>37440</v>
+        <v>36744</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>14903</v>
+        <v>14896</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>30895</v>
+        <v>30906</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1871</v>
+        <v>1880</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4279</v>
+        <v>3983</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>10795</v>
+        <v>11193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>8135</v>
+        <v>7960</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5024</v>
+        <v>4902</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>11631</v>
+        <v>13048</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>15071</v>
+        <v>14149</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>9184</v>
+        <v>8918</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>7307</v>
+        <v>7297</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>19283</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10959</v>
+        <v>10367</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6981</v>
+        <v>7007</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7934</v>
+        <v>7992</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13110</v>
+        <v>12672</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>26899</v>
+        <v>27447</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>22943</v>
+        <v>23021</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17857</v>
+        <v>18771</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>23623</v>
+        <v>24489</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>34304</v>
+        <v>32298</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>25795</v>
+        <v>24703</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>21545</v>
+        <v>22839</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>33227</v>
+        <v>33290</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11433</v>
+        <v>12148</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3733</v>
+        <v>3681</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9012</v>
+        <v>8966</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>23971</v>
+        <v>23298</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>29729</v>
+        <v>30670</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>33307</v>
+        <v>32620</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17857</v>
+        <v>16415</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>58950</v>
+        <v>58224</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>46840</v>
+        <v>45733</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>39258</v>
+        <v>39332</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>31233</v>
+        <v>30160</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>89518</v>
+        <v>88388</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>30287</v>
+        <v>30169</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>17625</v>
+        <v>16625</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>25753</v>
+        <v>25919</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>49333</v>
+        <v>48005</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>55687</v>
+        <v>54510</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>58431</v>
+        <v>58143</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>38401</v>
+        <v>38626</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>91367</v>
+        <v>90446</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>77139</v>
+        <v>77505</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>68915</v>
+        <v>69118</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>56806</v>
+        <v>57093</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>130294</v>
+        <v>128789</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>10358</v>
+        <v>11168</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2065</v>
+        <v>1967</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2876</v>
+        <v>2848</v>
       </c>
       <c r="F34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>17522</v>
+        <v>17424</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>24422</v>
+        <v>24596</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>19423</v>
+        <v>20350</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>10066</v>
+        <v>10030</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>32701</v>
+        <v>32757</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>29473</v>
+        <v>29012</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>25721</v>
+        <v>25841</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>11490</v>
+        <v>11333</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>28008</v>
+        <v>31284</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>12503</v>
+        <v>11591</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>13318</v>
+        <v>13698</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>6383</v>
+        <v>6681</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>38261</v>
+        <v>38328</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>49034</v>
+        <v>48923</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>41087</v>
+        <v>42363</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>21877</v>
+        <v>22632</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>59783</v>
+        <v>60180</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>56594</v>
+        <v>55755</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>50933</v>
+        <v>50239</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>25743</v>
+        <v>25296</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>58554</v>
+        <v>56794</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>32534</v>
+        <v>31808</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>30639</v>
+        <v>31372</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>61801</v>
+        <v>61458</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>156609</v>
+        <v>152963</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>186812</v>
+        <v>186209</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>124950</v>
+        <v>123820</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>178458</v>
+        <v>178491</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>224524</v>
+        <v>225201</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>228419</v>
+        <v>225909</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>166986</v>
+        <v>166041</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>250321</v>
+        <v>250642</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>94586</v>
+        <v>91144</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>61293</v>
+        <v>61312</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>58631</v>
+        <v>57466</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>97029</v>
+        <v>95935</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>207697</v>
+        <v>204565</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>246152</v>
+        <v>245560</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>173519</v>
+        <v>173737</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>224117</v>
+        <v>223712</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>284559</v>
+        <v>285471</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>292461</v>
+        <v>287718</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>221500</v>
+        <v>220499</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>307025</v>
+        <v>306739</v>
       </c>
     </row>
     <row r="40">
